--- a/data_year/zb/住宿和餐饮业/限额以上住宿业企业基本情况和经营情况/按登记注册类型和行业分限额以上住宿业企业营业额.xlsx
+++ b/data_year/zb/住宿和餐饮业/限额以上住宿业企业基本情况和经营情况/按登记注册类型和行业分限额以上住宿业企业营业额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL18"/>
+  <dimension ref="A1:AL13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,1717 +623,1355 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>51.01701</v>
+        <v>383.8</v>
       </c>
       <c r="C2" t="n">
-        <v>31.45084</v>
+        <v>36.4</v>
       </c>
       <c r="D2" t="n">
-        <v>72.35726</v>
+        <v>105.4</v>
       </c>
       <c r="E2" t="n">
-        <v>1170.5</v>
+        <v>2797.84297</v>
       </c>
       <c r="F2" t="n">
-        <v>4.88083</v>
+        <v>37.3</v>
       </c>
       <c r="G2" t="n">
-        <v>6.62777</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>48.1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>198.34294</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>701</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>1.2797</v>
+        <v>1.9</v>
       </c>
       <c r="L2" t="n">
-        <v>852.13617</v>
+        <v>2294</v>
       </c>
       <c r="M2" t="n">
-        <v>4.58503</v>
+        <v>3.2</v>
       </c>
       <c r="N2" t="n">
-        <v>330.71129</v>
+        <v>560.6</v>
       </c>
       <c r="O2" t="n">
-        <v>22.19138</v>
+        <v>32</v>
       </c>
       <c r="P2" t="n">
-        <v>10.10344</v>
+        <v>5.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>129.58081</v>
+        <v>222.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33065</v>
+        <v>4.7</v>
       </c>
       <c r="S2" t="n">
-        <v>24.44206</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="T2" t="n">
-        <v>1112.8967</v>
+        <v>2366</v>
       </c>
       <c r="U2" t="n">
-        <v>220.53432</v>
+        <v>733</v>
       </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
-        <v>45.36869</v>
+        <v>42.4</v>
       </c>
       <c r="X2" t="n">
-        <v>129.32426</v>
+        <v>148.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>188.8245</v>
+        <v>281.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.95682</v>
+        <v>5.3</v>
       </c>
       <c r="AA2" t="n">
-        <v>13.17473</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="AB2" t="n">
-        <v>161.25869</v>
+        <v>745.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.99637</v>
+        <v>33.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>115.83932</v>
+        <v>523.9</v>
       </c>
       <c r="AE2" t="n">
-        <v>28.47046</v>
+        <v>144.8</v>
       </c>
       <c r="AF2" t="n">
-        <v>10.95254</v>
+        <v>43</v>
       </c>
       <c r="AG2" t="n">
-        <v>17.18087</v>
+        <v>13.3</v>
       </c>
       <c r="AH2" t="n">
-        <v>14.9761</v>
+        <v>22.1</v>
       </c>
       <c r="AI2" t="n">
-        <v>50.0253</v>
+        <v>106.9</v>
       </c>
       <c r="AJ2" t="n">
-        <v>52.56877</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.2127</v>
+        <v>2.3</v>
       </c>
       <c r="AL2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>452.3871</v>
+      </c>
+      <c r="C3" t="n">
+        <v>35.8547</v>
+      </c>
+      <c r="D3" t="n">
+        <v>110.0901</v>
+      </c>
       <c r="E3" t="n">
-        <v>1353.3</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+        <v>3261.893</v>
+      </c>
+      <c r="F3" t="n">
+        <v>97.1827</v>
+      </c>
+      <c r="G3" t="n">
+        <v>57.4567</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.1385</v>
+      </c>
+      <c r="I3" t="n">
+        <v>903.1386</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.6572</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.3793</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2706.7339</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.5428</v>
+      </c>
+      <c r="N3" t="n">
+        <v>608.2458</v>
+      </c>
+      <c r="O3" t="n">
+        <v>38.0021</v>
+      </c>
+      <c r="P3" t="n">
+        <v>6.0376</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>235.1076</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4.5746</v>
+      </c>
+      <c r="S3" t="n">
+        <v>83.44970000000001</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2752.0492</v>
+      </c>
+      <c r="U3" t="n">
+        <v>941.1405999999999</v>
+      </c>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="W3" t="n">
+        <v>45.3351</v>
+      </c>
+      <c r="X3" t="n">
+        <v>165.5286</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>320.0515</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>8.9259</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>99.60469999999999</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>818.7516000000001</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>34.604</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>587.4258</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>144.6489</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>52.073</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>13.1615</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>22.133</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>126.7296</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>79.389</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>2.2019</v>
+      </c>
       <c r="AL3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>515.40085</v>
+      </c>
+      <c r="C4" t="n">
+        <v>36.92045</v>
+      </c>
+      <c r="D4" t="n">
+        <v>115.426</v>
+      </c>
       <c r="E4" t="n">
-        <v>1551.9</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+        <v>3534.43884</v>
+      </c>
+      <c r="F4" t="n">
+        <v>110.17538</v>
+      </c>
+      <c r="G4" t="n">
+        <v>65.90394999999999</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.481</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1021.51605</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.29841</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.23971</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2968.31234</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2.71926</v>
+      </c>
+      <c r="N4" t="n">
+        <v>641.44186</v>
+      </c>
+      <c r="O4" t="n">
+        <v>42.43832</v>
+      </c>
+      <c r="P4" t="n">
+        <v>6.00109</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>235.17256</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3.52262</v>
+      </c>
+      <c r="S4" t="n">
+        <v>77.82249</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2953.13404</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1063.95437</v>
+      </c>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
+      <c r="W4" t="n">
+        <v>43.32314</v>
+      </c>
+      <c r="X4" t="n">
+        <v>168.55389</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>330.95394</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>10.53049</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>108.24801</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>911.44852</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>37.56618</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>656.57349</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>161.19857</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>56.11028</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>13.20104</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>22.68029</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>121.55943</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>83.85145</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>2.24098</v>
+      </c>
       <c r="AL4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>611.84939</v>
+      </c>
+      <c r="C5" t="n">
+        <v>30.93519</v>
+      </c>
+      <c r="D5" t="n">
+        <v>107.7905</v>
+      </c>
       <c r="E5" t="n">
-        <v>1804.28477</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
+        <v>3527.99</v>
+      </c>
+      <c r="F5" t="n">
+        <v>35.25724</v>
+      </c>
+      <c r="G5" t="n">
+        <v>77.95586</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.07757</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1151.77422</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.35621</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.61741</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2981.06521</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.29177</v>
+      </c>
+      <c r="N5" t="n">
+        <v>495.02553</v>
+      </c>
+      <c r="O5" t="n">
+        <v>101.54605</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.14447</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>225.74864</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3.67352</v>
+      </c>
+      <c r="S5" t="n">
+        <v>82.27186</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2838.18475</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1253.32027</v>
+      </c>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
+      <c r="W5" t="n">
+        <v>38.22001</v>
+      </c>
+      <c r="X5" t="n">
+        <v>157.743</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>321.17615</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>9.96219</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>113.89474</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>989.48346</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>26.10675</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>793.96054</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>109.48871</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>59.92746</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>6.85393</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>11.83714</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>127.60455</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>61.68309</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1.80028</v>
+      </c>
       <c r="AL5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>265.4856</v>
+        <v>625.05682</v>
       </c>
       <c r="C6" t="n">
-        <v>37.3412</v>
+        <v>23.80718</v>
       </c>
       <c r="D6" t="n">
-        <v>111.1382</v>
+        <v>99.17269</v>
       </c>
       <c r="E6" t="n">
-        <v>2231.6117</v>
+        <v>3535.2</v>
       </c>
       <c r="F6" t="n">
-        <v>20.448</v>
+        <v>31.20304</v>
       </c>
       <c r="G6" t="n">
-        <v>33.4302</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
+        <v>73.33483</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5.20324</v>
+      </c>
       <c r="I6" t="n">
-        <v>487.9808</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>1220.21115</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.34974</v>
+      </c>
       <c r="K6" t="n">
-        <v>2.3938</v>
+        <v>0.50092</v>
       </c>
       <c r="L6" t="n">
-        <v>1773.8907</v>
+        <v>2984.71697</v>
       </c>
       <c r="M6" t="n">
-        <v>2.5815</v>
+        <v>1.17891</v>
       </c>
       <c r="N6" t="n">
-        <v>507.2536</v>
+        <v>417.55903</v>
       </c>
       <c r="O6" t="n">
-        <v>31.4925</v>
+        <v>108.94031</v>
       </c>
       <c r="P6" t="n">
-        <v>6.1975</v>
+        <v>2.78995</v>
       </c>
       <c r="Q6" t="n">
-        <v>213.2738</v>
+        <v>205.53314</v>
       </c>
       <c r="R6" t="n">
-        <v>4.6727</v>
+        <v>4.89189</v>
       </c>
       <c r="S6" t="n">
-        <v>60.1218</v>
+        <v>72.45814</v>
       </c>
       <c r="T6" t="n">
-        <v>1932.6959</v>
+        <v>2836.85795</v>
       </c>
       <c r="U6" t="n">
-        <v>519.4733</v>
+        <v>1329.15146</v>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>41.4317</v>
+        <v>51.83433</v>
       </c>
       <c r="X6" t="n">
-        <v>142.2953</v>
+        <v>149.119</v>
       </c>
       <c r="Y6" t="n">
-        <v>244.4471</v>
+        <v>344.99949</v>
       </c>
       <c r="Z6" t="n">
-        <v>4.4553</v>
+        <v>11.17856</v>
       </c>
       <c r="AA6" t="n">
-        <v>56.2648</v>
+        <v>132.51786</v>
       </c>
       <c r="AB6" t="n">
-        <v>537.5879</v>
+        <v>1012.02419</v>
       </c>
       <c r="AC6" t="n">
-        <v>29.3272</v>
+        <v>25.11064</v>
       </c>
       <c r="AD6" t="n">
-        <v>371.0222</v>
+        <v>824.4840799999999</v>
       </c>
       <c r="AE6" t="n">
-        <v>107.8285</v>
+        <v>106.39044</v>
       </c>
       <c r="AF6" t="n">
-        <v>29.41</v>
+        <v>56.03903</v>
       </c>
       <c r="AG6" t="n">
-        <v>11.9505</v>
+        <v>5.32395</v>
       </c>
       <c r="AH6" t="n">
-        <v>23.598</v>
+        <v>10.20512</v>
       </c>
       <c r="AI6" t="n">
-        <v>85.2342</v>
+        <v>125.52676</v>
       </c>
       <c r="AJ6" t="n">
-        <v>68.34520000000001</v>
+        <v>53.72342</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.7776999999999999</v>
+        <v>0.85417</v>
       </c>
       <c r="AL6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>289.59586</v>
+        <v>656.21</v>
       </c>
       <c r="C7" t="n">
-        <v>30.11404</v>
+        <v>22.9353</v>
       </c>
       <c r="D7" t="n">
-        <v>93.51609999999999</v>
+        <v>97.6835</v>
       </c>
       <c r="E7" t="n">
-        <v>2260.69973</v>
+        <v>3648.2152</v>
       </c>
       <c r="F7" t="n">
-        <v>29.31752</v>
+        <v>29.218</v>
       </c>
       <c r="G7" t="n">
-        <v>38.03364</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
+        <v>82.7465</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6.9862</v>
+      </c>
       <c r="I7" t="n">
-        <v>530.93255</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
+        <v>1302.2284</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.8543</v>
+      </c>
       <c r="K7" t="n">
-        <v>1.09552</v>
+        <v>0.592</v>
       </c>
       <c r="L7" t="n">
-        <v>1834.49774</v>
+        <v>3103.6565</v>
       </c>
       <c r="M7" t="n">
-        <v>3.07395</v>
+        <v>0.7054</v>
       </c>
       <c r="N7" t="n">
-        <v>499.46479</v>
+        <v>407.973</v>
       </c>
       <c r="O7" t="n">
-        <v>27.48365</v>
+        <v>118.2253</v>
       </c>
       <c r="P7" t="n">
-        <v>5.90178</v>
+        <v>3.9156</v>
       </c>
       <c r="Q7" t="n">
-        <v>191.73398</v>
+        <v>199.2401</v>
       </c>
       <c r="R7" t="n">
-        <v>5.04634</v>
+        <v>5.0888</v>
       </c>
       <c r="S7" t="n">
-        <v>63.0575</v>
+        <v>66.5466</v>
       </c>
       <c r="T7" t="n">
-        <v>1933.07023</v>
+        <v>2909.2589</v>
       </c>
       <c r="U7" t="n">
-        <v>558.4162</v>
+        <v>1420.4538</v>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>37.78345</v>
+        <v>44.1598</v>
       </c>
       <c r="X7" t="n">
-        <v>129.40655</v>
+        <v>150.326</v>
       </c>
       <c r="Y7" t="n">
-        <v>234.46801</v>
+        <v>345.3187</v>
       </c>
       <c r="Z7" t="n">
-        <v>5.73793</v>
+        <v>8.039400000000001</v>
       </c>
       <c r="AA7" t="n">
-        <v>61.54008</v>
+        <v>140.9395</v>
       </c>
       <c r="AB7" t="n">
-        <v>569.07895</v>
+        <v>1059.0824</v>
       </c>
       <c r="AC7" t="n">
-        <v>28.58307</v>
+        <v>25.6461</v>
       </c>
       <c r="AD7" t="n">
-        <v>399.85185</v>
+        <v>871.8286000000001</v>
       </c>
       <c r="AE7" t="n">
-        <v>109.70324</v>
+        <v>103.0494</v>
       </c>
       <c r="AF7" t="n">
-        <v>30.94079</v>
+        <v>58.5588</v>
       </c>
       <c r="AG7" t="n">
-        <v>11.03149</v>
+        <v>5.8097</v>
       </c>
       <c r="AH7" t="n">
-        <v>18.55894</v>
+        <v>10.3034</v>
       </c>
       <c r="AI7" t="n">
-        <v>84.69095</v>
+        <v>121.8577</v>
       </c>
       <c r="AJ7" t="n">
-        <v>63.9389</v>
+        <v>48.9601</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.96024</v>
+        <v>0.5969</v>
       </c>
       <c r="AL7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>383.8</v>
+        <v>725.5444</v>
       </c>
       <c r="C8" t="n">
-        <v>36.4</v>
+        <v>24.9576</v>
       </c>
       <c r="D8" t="n">
-        <v>105.4</v>
+        <v>85.4483</v>
       </c>
       <c r="E8" t="n">
-        <v>2797.84297</v>
+        <v>3811.1189</v>
       </c>
       <c r="F8" t="n">
-        <v>37.3</v>
+        <v>22.5095</v>
       </c>
       <c r="G8" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
+        <v>84.38939999999999</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6.902</v>
+      </c>
       <c r="I8" t="n">
-        <v>701</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
+        <v>1393.7266</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.1999</v>
+      </c>
       <c r="K8" t="n">
-        <v>1.9</v>
+        <v>0.4225</v>
       </c>
       <c r="L8" t="n">
-        <v>2294</v>
+        <v>3257.7444</v>
       </c>
       <c r="M8" t="n">
-        <v>3.2</v>
+        <v>0.7532</v>
       </c>
       <c r="N8" t="n">
-        <v>560.6</v>
+        <v>391.6408</v>
       </c>
       <c r="O8" t="n">
-        <v>32</v>
+        <v>138.0529</v>
       </c>
       <c r="P8" t="n">
-        <v>5.9</v>
+        <v>2.594</v>
       </c>
       <c r="Q8" t="n">
-        <v>222.4</v>
+        <v>188.8458</v>
       </c>
       <c r="R8" t="n">
-        <v>4.7</v>
+        <v>5.0418</v>
       </c>
       <c r="S8" t="n">
-        <v>75.90000000000001</v>
+        <v>66.4962</v>
       </c>
       <c r="T8" t="n">
-        <v>2366</v>
+        <v>3001.1856</v>
       </c>
       <c r="U8" t="n">
-        <v>733</v>
+        <v>1531.7792</v>
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>42.4</v>
+        <v>43.9853</v>
       </c>
       <c r="X8" t="n">
-        <v>148.6</v>
+        <v>155.0739</v>
       </c>
       <c r="Y8" t="n">
-        <v>281.4</v>
+        <v>364.529</v>
       </c>
       <c r="Z8" t="n">
-        <v>5.3</v>
+        <v>10.2964</v>
       </c>
       <c r="AA8" t="n">
-        <v>85.09999999999999</v>
+        <v>152.9739</v>
       </c>
       <c r="AB8" t="n">
-        <v>745.5</v>
+        <v>1125.6687</v>
       </c>
       <c r="AC8" t="n">
-        <v>33.8</v>
+        <v>26.5369</v>
       </c>
       <c r="AD8" t="n">
-        <v>523.9</v>
+        <v>943.0316</v>
       </c>
       <c r="AE8" t="n">
-        <v>144.8</v>
+        <v>98.3507</v>
       </c>
       <c r="AF8" t="n">
-        <v>43</v>
+        <v>57.7501</v>
       </c>
       <c r="AG8" t="n">
-        <v>13.3</v>
+        <v>4.3497</v>
       </c>
       <c r="AH8" t="n">
-        <v>22.1</v>
+        <v>9.530099999999999</v>
       </c>
       <c r="AI8" t="n">
-        <v>106.9</v>
+        <v>126.0518</v>
       </c>
       <c r="AJ8" t="n">
-        <v>75.40000000000001</v>
+        <v>46.2149</v>
       </c>
       <c r="AK8" t="n">
-        <v>2.3</v>
+        <v>0.5797</v>
       </c>
       <c r="AL8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>452.3871</v>
+        <v>813.2557</v>
       </c>
       <c r="C9" t="n">
-        <v>35.8547</v>
+        <v>30.557</v>
       </c>
       <c r="D9" t="n">
-        <v>110.0901</v>
+        <v>82.163</v>
       </c>
       <c r="E9" t="n">
-        <v>3261.893</v>
+        <v>3963.934</v>
       </c>
       <c r="F9" t="n">
-        <v>97.1827</v>
+        <v>16.11</v>
       </c>
       <c r="G9" t="n">
-        <v>57.4567</v>
+        <v>91.2719</v>
       </c>
       <c r="H9" t="n">
-        <v>1.1385</v>
+        <v>8.702</v>
       </c>
       <c r="I9" t="n">
-        <v>903.1386</v>
+        <v>1454.69</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6572</v>
+        <v>2.765</v>
       </c>
       <c r="K9" t="n">
-        <v>2.3793</v>
+        <v>0.4298</v>
       </c>
       <c r="L9" t="n">
-        <v>2706.7339</v>
+        <v>3416.2409</v>
       </c>
       <c r="M9" t="n">
-        <v>2.5428</v>
+        <v>0.6645</v>
       </c>
       <c r="N9" t="n">
-        <v>608.2458</v>
+        <v>359.882</v>
       </c>
       <c r="O9" t="n">
-        <v>38.0021</v>
+        <v>152.9998</v>
       </c>
       <c r="P9" t="n">
-        <v>6.0376</v>
+        <v>2.211</v>
       </c>
       <c r="Q9" t="n">
-        <v>235.1076</v>
+        <v>190.555</v>
       </c>
       <c r="R9" t="n">
-        <v>4.5746</v>
+        <v>3.669</v>
       </c>
       <c r="S9" t="n">
-        <v>83.44970000000001</v>
+        <v>65.46599999999999</v>
       </c>
       <c r="T9" t="n">
-        <v>2752.0492</v>
+        <v>3059.4066</v>
       </c>
       <c r="U9" t="n">
-        <v>941.1405999999999</v>
+        <v>1607.69</v>
       </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>45.3351</v>
+        <v>38.663</v>
       </c>
       <c r="X9" t="n">
-        <v>165.5286</v>
+        <v>146.819</v>
       </c>
       <c r="Y9" t="n">
-        <v>320.0515</v>
+        <v>357.138</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.9259</v>
+        <v>10.8</v>
       </c>
       <c r="AA9" t="n">
-        <v>99.60469999999999</v>
+        <v>158.09</v>
       </c>
       <c r="AB9" t="n">
-        <v>818.7516000000001</v>
+        <v>1258.514</v>
       </c>
       <c r="AC9" t="n">
-        <v>34.604</v>
+        <v>24.535</v>
       </c>
       <c r="AD9" t="n">
-        <v>587.4258</v>
+        <v>1093.995</v>
       </c>
       <c r="AE9" t="n">
-        <v>144.6489</v>
+        <v>84.63800000000001</v>
       </c>
       <c r="AF9" t="n">
-        <v>52.073</v>
+        <v>55.347</v>
       </c>
       <c r="AG9" t="n">
-        <v>13.1615</v>
+        <v>3.771</v>
       </c>
       <c r="AH9" t="n">
-        <v>22.133</v>
+        <v>8.563000000000001</v>
       </c>
       <c r="AI9" t="n">
-        <v>126.7296</v>
+        <v>121.994</v>
       </c>
       <c r="AJ9" t="n">
-        <v>79.389</v>
+        <v>39.716</v>
       </c>
       <c r="AK9" t="n">
-        <v>2.2019</v>
+        <v>0.4656</v>
       </c>
       <c r="AL9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>515.40085</v>
+        <v>830.1</v>
       </c>
       <c r="C10" t="n">
-        <v>36.92045</v>
+        <v>29.6</v>
       </c>
       <c r="D10" t="n">
-        <v>115.426</v>
+        <v>87.8</v>
       </c>
       <c r="E10" t="n">
-        <v>3534.43884</v>
+        <v>4059.7</v>
       </c>
       <c r="F10" t="n">
-        <v>110.17538</v>
+        <v>1.9</v>
       </c>
       <c r="G10" t="n">
-        <v>65.90394999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>1.481</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>1021.51605</v>
+        <v>1446.4</v>
       </c>
       <c r="J10" t="n">
-        <v>0.29841</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.23971</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>2968.31234</v>
-      </c>
-      <c r="M10" t="n">
-        <v>2.71926</v>
-      </c>
+        <v>3509.4</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>641.44186</v>
+        <v>307.4</v>
       </c>
       <c r="O10" t="n">
-        <v>42.43832</v>
+        <v>169</v>
       </c>
       <c r="P10" t="n">
-        <v>6.00109</v>
+        <v>3.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>235.17256</v>
+        <v>199.8</v>
       </c>
       <c r="R10" t="n">
-        <v>3.52262</v>
+        <v>3.7</v>
       </c>
       <c r="S10" t="n">
-        <v>77.82249</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="T10" t="n">
-        <v>2953.13404</v>
+        <v>3143.9</v>
       </c>
       <c r="U10" t="n">
-        <v>1063.95437</v>
-      </c>
-      <c r="V10" t="inlineStr"/>
+        <v>1615.4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>7</v>
+      </c>
       <c r="W10" t="n">
-        <v>43.32314</v>
+        <v>41</v>
       </c>
       <c r="X10" t="n">
-        <v>168.55389</v>
+        <v>145</v>
       </c>
       <c r="Y10" t="n">
-        <v>330.95394</v>
+        <v>350.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>10.53049</v>
+        <v>7.8</v>
       </c>
       <c r="AA10" t="n">
-        <v>108.24801</v>
+        <v>154.8</v>
       </c>
       <c r="AB10" t="n">
-        <v>911.44852</v>
+        <v>1415.7</v>
       </c>
       <c r="AC10" t="n">
-        <v>37.56618</v>
+        <v>19.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>656.57349</v>
+        <v>1284.1</v>
       </c>
       <c r="AE10" t="n">
-        <v>161.19857</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="AF10" t="n">
-        <v>56.11028</v>
+        <v>37.8</v>
       </c>
       <c r="AG10" t="n">
-        <v>13.20104</v>
+        <v>4.6</v>
       </c>
       <c r="AH10" t="n">
-        <v>22.68029</v>
+        <v>7</v>
       </c>
       <c r="AI10" t="n">
-        <v>121.55943</v>
+        <v>123.4</v>
       </c>
       <c r="AJ10" t="n">
-        <v>83.85145</v>
+        <v>34.1</v>
       </c>
       <c r="AK10" t="n">
-        <v>2.24098</v>
-      </c>
-      <c r="AL10" t="inlineStr"/>
+        <v>0.3</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>611.84939</v>
+        <v>1051.9562</v>
       </c>
       <c r="C11" t="n">
-        <v>30.93519</v>
+        <v>27.9205</v>
       </c>
       <c r="D11" t="n">
-        <v>107.7905</v>
+        <v>83.3704</v>
       </c>
       <c r="E11" t="n">
-        <v>3527.99</v>
+        <v>4343.6098</v>
       </c>
       <c r="F11" t="n">
-        <v>35.25724</v>
+        <v>0.4179</v>
       </c>
       <c r="G11" t="n">
-        <v>77.95586</v>
+        <v>110.5458</v>
       </c>
       <c r="H11" t="n">
-        <v>1.07757</v>
+        <v>2.953</v>
       </c>
       <c r="I11" t="n">
-        <v>1151.77422</v>
+        <v>1443.2594</v>
       </c>
       <c r="J11" t="n">
-        <v>1.35621</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.61741</v>
-      </c>
+        <v>1.5797</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>2981.06521</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.29177</v>
-      </c>
+        <v>3777.7807</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>495.02553</v>
+        <v>303.0997</v>
       </c>
       <c r="O11" t="n">
-        <v>101.54605</v>
+        <v>188.9739</v>
       </c>
       <c r="P11" t="n">
-        <v>3.14447</v>
+        <v>2.3295</v>
       </c>
       <c r="Q11" t="n">
-        <v>225.74864</v>
+        <v>217.6096</v>
       </c>
       <c r="R11" t="n">
-        <v>3.67352</v>
+        <v>18.8787</v>
       </c>
       <c r="S11" t="n">
-        <v>82.27186</v>
+        <v>84.4871</v>
       </c>
       <c r="T11" t="n">
-        <v>2838.18475</v>
+        <v>3169.571</v>
       </c>
       <c r="U11" t="n">
-        <v>1253.32027</v>
-      </c>
-      <c r="V11" t="inlineStr"/>
+        <v>1632.233</v>
+      </c>
+      <c r="V11" t="n">
+        <v>10.4938</v>
+      </c>
       <c r="W11" t="n">
-        <v>38.22001</v>
+        <v>30.3972</v>
       </c>
       <c r="X11" t="n">
-        <v>157.743</v>
+        <v>146.3056</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.17615</v>
+        <v>348.2195</v>
       </c>
       <c r="Z11" t="n">
-        <v>9.96219</v>
+        <v>4.0809</v>
       </c>
       <c r="AA11" t="n">
-        <v>113.89474</v>
+        <v>165.8562</v>
       </c>
       <c r="AB11" t="n">
-        <v>989.48346</v>
+        <v>1681.6929</v>
       </c>
       <c r="AC11" t="n">
-        <v>26.10675</v>
+        <v>20.416</v>
       </c>
       <c r="AD11" t="n">
-        <v>793.96054</v>
+        <v>1544.641</v>
       </c>
       <c r="AE11" t="n">
-        <v>109.48871</v>
+        <v>77.14660000000001</v>
       </c>
       <c r="AF11" t="n">
-        <v>59.92746</v>
+        <v>39.4899</v>
       </c>
       <c r="AG11" t="n">
-        <v>6.85393</v>
+        <v>3.5031</v>
       </c>
       <c r="AH11" t="n">
-        <v>11.83714</v>
+        <v>7.1999</v>
       </c>
       <c r="AI11" t="n">
-        <v>127.60455</v>
+        <v>116.5877</v>
       </c>
       <c r="AJ11" t="n">
-        <v>61.68309</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>1.80028</v>
-      </c>
-      <c r="AL11" t="inlineStr"/>
+        <v>33.0469</v>
+      </c>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>1.0436</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>625.05682</v>
+        <v>884.6523</v>
       </c>
       <c r="C12" t="n">
-        <v>23.80718</v>
+        <v>12.23</v>
       </c>
       <c r="D12" t="n">
-        <v>99.17269</v>
+        <v>54.0492</v>
       </c>
       <c r="E12" t="n">
-        <v>3535.2</v>
+        <v>3329.743</v>
       </c>
       <c r="F12" t="n">
-        <v>31.20304</v>
+        <v>1.1325</v>
       </c>
       <c r="G12" t="n">
-        <v>73.33483</v>
+        <v>90.176</v>
       </c>
       <c r="H12" t="n">
-        <v>5.20324</v>
+        <v>1.551</v>
       </c>
       <c r="I12" t="n">
-        <v>1220.21115</v>
+        <v>908.4724</v>
       </c>
       <c r="J12" t="n">
-        <v>0.34974</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.50092</v>
-      </c>
+        <v>0.7463</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>2984.71697</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.17891</v>
-      </c>
+        <v>2968.6435</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>417.55903</v>
+        <v>232.5216</v>
       </c>
       <c r="O12" t="n">
-        <v>108.94031</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.78995</v>
-      </c>
+        <v>136.6024</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="n">
-        <v>205.53314</v>
+        <v>127.1308</v>
       </c>
       <c r="R12" t="n">
-        <v>4.89189</v>
+        <v>3.0142</v>
       </c>
       <c r="S12" t="n">
-        <v>72.45814</v>
+        <v>56.2863</v>
       </c>
       <c r="T12" t="n">
-        <v>2836.85795</v>
+        <v>2342.8842</v>
       </c>
       <c r="U12" t="n">
-        <v>1329.15146</v>
-      </c>
-      <c r="V12" t="inlineStr"/>
+        <v>1045.0745</v>
+      </c>
+      <c r="V12" t="n">
+        <v>10.7627</v>
+      </c>
       <c r="W12" t="n">
-        <v>51.83433</v>
+        <v>17.7799</v>
       </c>
       <c r="X12" t="n">
-        <v>149.119</v>
+        <v>90.85890000000001</v>
       </c>
       <c r="Y12" t="n">
-        <v>344.99949</v>
+        <v>233.969</v>
       </c>
       <c r="Z12" t="n">
-        <v>11.17856</v>
+        <v>2.3208</v>
       </c>
       <c r="AA12" t="n">
-        <v>132.51786</v>
+        <v>122.2627</v>
       </c>
       <c r="AB12" t="n">
-        <v>1012.02419</v>
+        <v>1590.149</v>
       </c>
       <c r="AC12" t="n">
-        <v>25.11064</v>
+        <v>16.278</v>
       </c>
       <c r="AD12" t="n">
-        <v>824.4840799999999</v>
+        <v>1472.9774</v>
       </c>
       <c r="AE12" t="n">
-        <v>106.39044</v>
+        <v>80.30459999999999</v>
       </c>
       <c r="AF12" t="n">
-        <v>56.03903</v>
+        <v>20.5897</v>
       </c>
       <c r="AG12" t="n">
-        <v>5.32395</v>
+        <v>4.094</v>
       </c>
       <c r="AH12" t="n">
-        <v>10.20512</v>
+        <v>6.8707</v>
       </c>
       <c r="AI12" t="n">
-        <v>125.52676</v>
+        <v>67.1888</v>
       </c>
       <c r="AJ12" t="n">
-        <v>53.72342</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>0.85417</v>
-      </c>
-      <c r="AL12" t="inlineStr"/>
+        <v>21.6133</v>
+      </c>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>1.2684</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>656.21</v>
+        <v>1128.3059</v>
       </c>
       <c r="C13" t="n">
-        <v>22.9353</v>
+        <v>18.7599</v>
       </c>
       <c r="D13" t="n">
-        <v>97.6835</v>
+        <v>61.3328</v>
       </c>
       <c r="E13" t="n">
-        <v>3648.2152</v>
+        <v>4071.5939</v>
       </c>
       <c r="F13" t="n">
-        <v>29.218</v>
+        <v>0.6161</v>
       </c>
       <c r="G13" t="n">
-        <v>82.7465</v>
+        <v>109.4425</v>
       </c>
       <c r="H13" t="n">
-        <v>6.9862</v>
+        <v>2.9836</v>
       </c>
       <c r="I13" t="n">
-        <v>1302.2284</v>
+        <v>1091.6389</v>
       </c>
       <c r="J13" t="n">
-        <v>1.8543</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.592</v>
-      </c>
+        <v>2.0838</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>3103.6565</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.7054</v>
-      </c>
+        <v>3629.0293</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>407.973</v>
+        <v>232.7709</v>
       </c>
       <c r="O13" t="n">
-        <v>118.2253</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.9156</v>
-      </c>
+        <v>186.1574</v>
+      </c>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="n">
-        <v>199.2401</v>
+        <v>161.9394</v>
       </c>
       <c r="R13" t="n">
-        <v>5.0888</v>
+        <v>2.6977</v>
       </c>
       <c r="S13" t="n">
-        <v>66.5466</v>
+        <v>76.16540000000001</v>
       </c>
       <c r="T13" t="n">
-        <v>2909.2589</v>
+        <v>2814.4312</v>
       </c>
       <c r="U13" t="n">
-        <v>1420.4538</v>
-      </c>
-      <c r="V13" t="inlineStr"/>
+        <v>1277.7963</v>
+      </c>
+      <c r="V13" t="n">
+        <v>17.6604</v>
+      </c>
       <c r="W13" t="n">
-        <v>44.1598</v>
+        <v>21.5329</v>
       </c>
       <c r="X13" t="n">
-        <v>150.326</v>
+        <v>106.3581</v>
       </c>
       <c r="Y13" t="n">
-        <v>345.3187</v>
+        <v>280.6253</v>
       </c>
       <c r="Z13" t="n">
-        <v>8.039400000000001</v>
+        <v>9.973699999999999</v>
       </c>
       <c r="AA13" t="n">
-        <v>140.9395</v>
+        <v>140.6768</v>
       </c>
       <c r="AB13" t="n">
-        <v>1059.0824</v>
+        <v>2027.6047</v>
       </c>
       <c r="AC13" t="n">
-        <v>25.6461</v>
+        <v>18.9737</v>
       </c>
       <c r="AD13" t="n">
-        <v>871.8286000000001</v>
+        <v>1884.2936</v>
       </c>
       <c r="AE13" t="n">
-        <v>103.0494</v>
+        <v>97.8181</v>
       </c>
       <c r="AF13" t="n">
-        <v>58.5588</v>
+        <v>26.5193</v>
       </c>
       <c r="AG13" t="n">
-        <v>5.8097</v>
+        <v>2.4556</v>
       </c>
       <c r="AH13" t="n">
-        <v>10.3034</v>
+        <v>7.3719</v>
       </c>
       <c r="AI13" t="n">
-        <v>121.8577</v>
+        <v>57.3198</v>
       </c>
       <c r="AJ13" t="n">
-        <v>48.9601</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0.5969</v>
-      </c>
-      <c r="AL13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>725.5444</v>
-      </c>
-      <c r="C14" t="n">
-        <v>24.9576</v>
-      </c>
-      <c r="D14" t="n">
-        <v>85.4483</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3811.1189</v>
-      </c>
-      <c r="F14" t="n">
-        <v>22.5095</v>
-      </c>
-      <c r="G14" t="n">
-        <v>84.38939999999999</v>
-      </c>
-      <c r="H14" t="n">
-        <v>6.902</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1393.7266</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.1999</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.4225</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3257.7444</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.7532</v>
-      </c>
-      <c r="N14" t="n">
-        <v>391.6408</v>
-      </c>
-      <c r="O14" t="n">
-        <v>138.0529</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.594</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>188.8458</v>
-      </c>
-      <c r="R14" t="n">
-        <v>5.0418</v>
-      </c>
-      <c r="S14" t="n">
-        <v>66.4962</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3001.1856</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1531.7792</v>
-      </c>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="n">
-        <v>43.9853</v>
-      </c>
-      <c r="X14" t="n">
-        <v>155.0739</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>364.529</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>10.2964</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>152.9739</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>1125.6687</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>26.5369</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>943.0316</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>98.3507</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>57.7501</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>4.3497</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>9.530099999999999</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>126.0518</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>46.2149</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0.5797</v>
-      </c>
-      <c r="AL14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>813.2557</v>
-      </c>
-      <c r="C15" t="n">
-        <v>30.557</v>
-      </c>
-      <c r="D15" t="n">
-        <v>82.163</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3963.934</v>
-      </c>
-      <c r="F15" t="n">
-        <v>16.11</v>
-      </c>
-      <c r="G15" t="n">
-        <v>91.2719</v>
-      </c>
-      <c r="H15" t="n">
-        <v>8.702</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1454.69</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.765</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4298</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3416.2409</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.6645</v>
-      </c>
-      <c r="N15" t="n">
-        <v>359.882</v>
-      </c>
-      <c r="O15" t="n">
-        <v>152.9998</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.211</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>190.555</v>
-      </c>
-      <c r="R15" t="n">
-        <v>3.669</v>
-      </c>
-      <c r="S15" t="n">
-        <v>65.46599999999999</v>
-      </c>
-      <c r="T15" t="n">
-        <v>3059.4066</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1607.69</v>
-      </c>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="n">
-        <v>38.663</v>
-      </c>
-      <c r="X15" t="n">
-        <v>146.819</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>357.138</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>158.09</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>1258.514</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>24.535</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>1093.995</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>84.63800000000001</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>55.347</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>3.771</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>8.563000000000001</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>121.994</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>39.716</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>0.4656</v>
-      </c>
-      <c r="AL15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>830.1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="D16" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="E16" t="n">
-        <v>4059.7</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="G16" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="H16" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1446.4</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>3509.4</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
-        <v>307.4</v>
-      </c>
-      <c r="O16" t="n">
-        <v>169</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>199.8</v>
-      </c>
-      <c r="R16" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="S16" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="T16" t="n">
-        <v>3143.9</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1615.4</v>
-      </c>
-      <c r="V16" t="n">
-        <v>7</v>
-      </c>
-      <c r="W16" t="n">
-        <v>41</v>
-      </c>
-      <c r="X16" t="n">
-        <v>145</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>350.5</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>154.8</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>1415.7</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>1284.1</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>74.40000000000001</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>123.4</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1051.9562</v>
-      </c>
-      <c r="C17" t="n">
-        <v>27.9205</v>
-      </c>
-      <c r="D17" t="n">
-        <v>83.3704</v>
-      </c>
-      <c r="E17" t="n">
-        <v>4343.6098</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.4179</v>
-      </c>
-      <c r="G17" t="n">
-        <v>110.5458</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2.953</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1443.2594</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.5797</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>3777.7807</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
-        <v>303.0997</v>
-      </c>
-      <c r="O17" t="n">
-        <v>188.9739</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.3295</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>217.6096</v>
-      </c>
-      <c r="R17" t="n">
-        <v>18.8787</v>
-      </c>
-      <c r="S17" t="n">
-        <v>84.4871</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3169.571</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1632.233</v>
-      </c>
-      <c r="V17" t="n">
-        <v>10.4938</v>
-      </c>
-      <c r="W17" t="n">
-        <v>30.3972</v>
-      </c>
-      <c r="X17" t="n">
-        <v>146.3056</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>348.2195</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>4.0809</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>165.8562</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>1681.6929</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>20.416</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>1544.641</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>77.14660000000001</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>39.4899</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>3.5031</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>7.1999</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>116.5877</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>33.0469</v>
-      </c>
-      <c r="AK17" t="inlineStr"/>
-      <c r="AL17" t="n">
-        <v>1.0436</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>884.6523</v>
-      </c>
-      <c r="C18" t="n">
-        <v>12.23</v>
-      </c>
-      <c r="D18" t="n">
-        <v>54.0492</v>
-      </c>
-      <c r="E18" t="n">
-        <v>3329.743</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1.1325</v>
-      </c>
-      <c r="G18" t="n">
-        <v>90.176</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1.551</v>
-      </c>
-      <c r="I18" t="n">
-        <v>908.4724</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.7463</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>2968.6435</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
-        <v>232.5216</v>
-      </c>
-      <c r="O18" t="n">
-        <v>136.6024</v>
-      </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="n">
-        <v>127.1308</v>
-      </c>
-      <c r="R18" t="n">
-        <v>3.0142</v>
-      </c>
-      <c r="S18" t="n">
-        <v>56.2863</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2342.8842</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1045.0745</v>
-      </c>
-      <c r="V18" t="n">
-        <v>10.7627</v>
-      </c>
-      <c r="W18" t="n">
-        <v>17.7799</v>
-      </c>
-      <c r="X18" t="n">
-        <v>90.85890000000001</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>233.969</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>2.3208</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>122.2627</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>1590.149</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>16.278</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>1472.9774</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>80.30459999999999</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>20.5897</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>4.094</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>6.8707</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>67.1888</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>21.6133</v>
-      </c>
-      <c r="AK18" t="inlineStr"/>
-      <c r="AL18" t="n">
-        <v>1.2684</v>
+        <v>23.094</v>
+      </c>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="n">
+        <v>1.7538</v>
       </c>
     </row>
   </sheetData>
